--- a/data/StormVariables.xlsx
+++ b/data/StormVariables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcrary\Desktop\Projects\RNERRS2\ReserveTemplates_v1\latest_input_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcrary\Desktop\Projects\RNERRS2\Workflow_Template_20220509\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3192475-2220-49F1-B76D-13885E5F9860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE3E239-D2A7-4DBB-A7AE-3AF1EFB86867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="814" firstSheet="4" activeTab="11" xr2:uid="{A89BE9B6-3846-4642-A347-3B30C3E6A5B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="11" r:id="rId1"/>
@@ -21,31 +21,21 @@
     <sheet name="windrose" sheetId="4" r:id="rId6"/>
     <sheet name="rate_of_change" sheetId="6" r:id="rId7"/>
     <sheet name="ridgeline" sheetId="7" r:id="rId8"/>
-    <sheet name="stats_one_reserve" sheetId="8" r:id="rId9"/>
-    <sheet name="stats_one_event" sheetId="9" r:id="rId10"/>
-    <sheet name="table_daily" sheetId="10" r:id="rId11"/>
-    <sheet name="table_summary" sheetId="12" r:id="rId12"/>
+    <sheet name="table_daily" sheetId="10" r:id="rId9"/>
+    <sheet name="table_summary" sheetId="12" r:id="rId10"/>
+    <sheet name="reserve_map" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="50">
   <si>
     <t>storm_start</t>
   </si>
@@ -53,9 +43,6 @@
     <t>storm_end</t>
   </si>
   <si>
-    <t>Paramter</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -104,33 +91,15 @@
     <t>onset_end</t>
   </si>
   <si>
-    <t>Florence</t>
-  </si>
-  <si>
     <t>0, 3, 5, &lt;-4&gt; \[SBL\], 1</t>
   </si>
   <si>
-    <t>2018-09-14 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-09-23 23:45:00</t>
-  </si>
-  <si>
     <t>reserve</t>
   </si>
   <si>
-    <t>param</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>flip</t>
   </si>
   <si>
-    <t>gtm</t>
-  </si>
-  <si>
     <t>Text Entry Notes</t>
   </si>
   <si>
@@ -179,18 +148,6 @@
     <t xml:space="preserve">Leave blank to generate a data table for active stations within the reserve provided in the Master tab, or provide an alternate reserve code. </t>
   </si>
   <si>
-    <t>reserves</t>
-  </si>
-  <si>
-    <t>Florence, Matthew</t>
-  </si>
-  <si>
-    <t>2018-09-14 00:00:00, 2016-10-05 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-09-23 23:45:00, 2016-10-15 23:45:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Provide a list of storm names, separated by a comma. </t>
   </si>
   <si>
@@ -200,12 +157,6 @@
     <t xml:space="preserve">Provide a list of storm end dates, in the same order as storm_nm, separated by a comma. Datetime should be YYYY-MM-DD HH:MM:SS. Cell should be formatted as text. </t>
   </si>
   <si>
-    <t xml:space="preserve">Provide a comma separated list of reserve codes. Leave blank to use the same reserve as in the Master tab. </t>
-  </si>
-  <si>
-    <t>gtm, ace</t>
-  </si>
-  <si>
     <t>path_to_shp</t>
   </si>
   <si>
@@ -225,6 +176,15 @@
   </si>
   <si>
     <t xml:space="preserve">Leave blank to generate plots for one reserve from the reserve listed in Master tab, or provide a comma separated list of station codes from various reserves. </t>
+  </si>
+  <si>
+    <t>Provide a single station code. Do not specify a met station if parameters are from a non-met station, otherwise plot label will display met station location.</t>
+  </si>
+  <si>
+    <t>lab_loc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comma separated list of reserve label directional orientations (R = right, L = left). The list needs to be the same length as the number of active wq and met stations. The order corresponding to a given station will be printed to the screen in the 01_Generate_Analysis_Results script, or it can be printed directly with print_lab_dir_stn_order() in the R project. </t>
   </si>
 </sst>
 </file>
@@ -582,46 +542,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE4E937-F601-4B59-8597-2DA8B64405E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -630,108 +584,100 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB2BBA3-EC0E-4170-A0D6-C874D15CE67D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="163.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -740,200 +686,48 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B68DAD7-762A-41E5-85AB-12A29B9336E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9413FADA-6183-4A09-B519-B4B46703C9D9}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D8196F-C213-4007-834F-6C01C74A2572}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C16:C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -942,102 +736,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D52C8-09D6-42F1-86EC-F75DD93095DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="113.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>26</v>
       </c>
       <c r="B6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1046,126 +841,128 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9233AACC-79D6-4799-9EC1-14A8082126A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="115.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1174,261 +971,267 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAB5210-E297-4DE2-8104-9F0DDA470B5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="134.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B7908C-EA33-49CC-A213-A6E2837DD4E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="147.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>39</v>
       </c>
       <c r="B9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1437,90 +1240,92 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E12FBDB-ECAB-4000-BCB9-44B751AE73A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="148.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1529,107 +1334,109 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823200BD-280A-40F5-92E2-F9AFB56F76F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="148.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1638,107 +1445,109 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C014C3-0BB5-49D5-8AF2-118D5F88FEDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="160.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1747,108 +1556,100 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C1F852-121F-462D-8753-0E50A95B91C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/StormVariables.xlsx
+++ b/data/StormVariables.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcrary\Desktop\Projects\RNERRS2\Workflow_Template_20220509\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RNERRS2\SWMPr_Storm_Story_Template-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE3E239-D2A7-4DBB-A7AE-3AF1EFB86867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="11" r:id="rId1"/>
@@ -103,9 +102,6 @@
     <t>Text Entry Notes</t>
   </si>
   <si>
-    <t>provide single reserve</t>
-  </si>
-  <si>
     <t xml:space="preserve">Provide Datetime in YYYY-MM-DD HH:MM:SS. Cell should be formatted as text. </t>
   </si>
   <si>
@@ -185,12 +181,15 @@
   </si>
   <si>
     <t xml:space="preserve">Comma separated list of reserve label directional orientations (R = right, L = left). The list needs to be the same length as the number of active wq and met stations. The order corresponding to a given station will be printed to the screen in the 01_Generate_Analysis_Results script, or it can be printed directly with print_lab_dir_stn_order() in the R project. </t>
+  </si>
+  <si>
+    <t>provide single reserve (enter three letter call code: e.g., gtm, del, job, noc, niw, ace)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -228,6 +227,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,21 +544,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
     <col min="2" max="2" width="53.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="73.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -575,7 +577,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -617,7 +619,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -626,7 +628,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -635,7 +637,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -644,7 +646,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -655,29 +657,29 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -686,21 +688,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9413FADA-6183-4A09-B519-B4B46703C9D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.44140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -710,33 +712,34 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -770,7 +773,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -779,7 +782,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -788,7 +791,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -799,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -810,29 +813,29 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -875,7 +878,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -884,7 +887,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -893,7 +896,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -902,7 +905,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -911,7 +914,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -920,7 +923,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -929,7 +932,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -940,29 +943,29 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -1004,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1013,7 +1016,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1022,7 +1025,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1031,7 +1034,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1040,7 +1043,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1049,7 +1052,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1058,7 +1061,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1067,7 +1070,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1076,7 +1079,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1087,29 +1090,29 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -1153,7 +1156,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1162,7 +1165,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1171,7 +1174,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1180,7 +1183,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1189,7 +1192,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1198,7 +1201,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1209,29 +1212,29 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -1274,7 +1277,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1283,7 +1286,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1292,7 +1295,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1303,29 +1306,29 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1334,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -1367,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1376,7 +1379,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1385,7 +1388,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1394,7 +1397,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1403,7 +1406,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1414,29 +1417,29 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1445,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -1478,7 +1481,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1487,7 +1490,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1496,7 +1499,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1505,7 +1508,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1514,7 +1517,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1525,29 +1528,29 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1556,7 +1559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -1589,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1598,7 +1601,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1607,7 +1610,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1616,7 +1619,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1627,29 +1630,29 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/StormVariables.xlsx
+++ b/data/StormVariables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RNERRS2\SWMPr_Storm_Story_Template-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BallengerJ\Documents\GitHub\SWMPr_Storm_Story_Template\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7319159C-B101-444A-B546-9AC876C441EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="780" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="11" r:id="rId1"/>
@@ -189,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,7 +237,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B3F991DE-6D57-496E-B882-5AEF041D06F0}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -544,24 +547,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="53.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="53.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -572,7 +575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -586,7 +589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -596,14 +599,14 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="163.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="163.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -614,7 +617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -622,7 +625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -631,7 +634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -640,7 +643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -649,7 +652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -660,7 +663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -671,7 +674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -688,24 +691,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.453125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -716,7 +719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -724,7 +727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -739,24 +742,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
-    <col min="3" max="3" width="113.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" customWidth="1"/>
+    <col min="3" max="3" width="113.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -767,7 +770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -776,7 +779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -785,7 +788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -794,7 +797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -805,7 +808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -816,7 +819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -827,7 +830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -844,24 +847,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="115.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="3" width="115.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -872,7 +875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -881,7 +884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -890,7 +893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -899,7 +902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -908,7 +911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -917,7 +920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -926,7 +929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -935,7 +938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -946,7 +949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -957,7 +960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -974,24 +977,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="134.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.08984375" customWidth="1"/>
+    <col min="3" max="3" width="134.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1122,24 +1125,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="147.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="147.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1177,16 +1180,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1195,7 +1197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1204,7 +1206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1226,7 +1228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1243,7 +1245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -1253,14 +1255,14 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="148.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" customWidth="1"/>
+    <col min="3" max="3" width="148.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1298,7 +1300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1320,7 +1322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1337,24 +1339,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="148.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" customWidth="1"/>
+    <col min="3" max="3" width="148.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1365,7 +1367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1373,7 +1375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1391,7 +1393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1400,7 +1402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1431,7 +1433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1448,24 +1450,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="160.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="160.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1484,7 +1486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1502,7 +1504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1511,7 +1513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1520,7 +1522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1531,7 +1533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1542,7 +1544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1559,24 +1561,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="142.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +1589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1595,7 +1597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1622,7 +1624,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1633,7 +1635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1644,7 +1646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>43</v>
       </c>
